--- a/Annotations/Old/TheCountOfMonteCristo.xlsx
+++ b/Annotations/Old/TheCountOfMonteCristo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="countcristo" sheetId="1" r:id="rId1"/>
@@ -1532,14 +1532,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.88671875" style="2" customWidth="1"/>
@@ -1601,7 +1602,7 @@
     <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.56821584928276447</v>
+        <v>0.4286643044620907</v>
       </c>
       <c r="B2" s="2">
         <v>52</v>
@@ -1625,7 +1626,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38143702624934284</v>
+        <v>0.41121539863575263</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -1649,7 +1650,7 @@
     <row r="4" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52521409681576847</v>
+        <v>0.92692166912390594</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
@@ -1673,7 +1674,7 @@
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13383832358171965</v>
+        <v>0.1035832226452984</v>
       </c>
       <c r="B5" s="2">
         <v>56</v>
@@ -1700,7 +1701,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44760935930005041</v>
+        <v>0.87578675949758999</v>
       </c>
       <c r="B6" s="2">
         <v>81</v>
@@ -1727,7 +1728,7 @@
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34928359695870759</v>
+        <v>0.58197950481639327</v>
       </c>
       <c r="B7" s="2">
         <v>35</v>
@@ -1754,7 +1755,7 @@
     <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61770568977320806</v>
+        <v>0.26006907874601404</v>
       </c>
       <c r="B8" s="2">
         <v>93</v>
@@ -1784,7 +1785,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63926055216579003</v>
+        <v>0.48801289359482369</v>
       </c>
       <c r="B9" s="2">
         <v>31</v>
@@ -1808,7 +1809,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30100894723649052</v>
+        <v>9.6748098007339078E-2</v>
       </c>
       <c r="B10" s="2">
         <v>145</v>
@@ -1835,7 +1836,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83720426620930311</v>
+        <v>0.22887651426079192</v>
       </c>
       <c r="B11" s="2">
         <v>57</v>
@@ -1862,7 +1863,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15977222987274997</v>
+        <v>0.95772903451841707</v>
       </c>
       <c r="B12" s="2">
         <v>38</v>
@@ -1883,7 +1884,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4781391821284608E-2</v>
+        <v>0.43119229381536661</v>
       </c>
       <c r="B13" s="2">
         <v>132</v>
@@ -1907,7 +1908,7 @@
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7364764640488648E-2</v>
+        <v>0.58471801012997282</v>
       </c>
       <c r="B14" s="2">
         <v>163</v>
@@ -1934,7 +1935,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9849048504725203</v>
+        <v>0.67418513497783183</v>
       </c>
       <c r="B15" s="2">
         <v>59</v>
@@ -1955,7 +1956,7 @@
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14573806115538701</v>
+        <v>4.1432720346224361E-2</v>
       </c>
       <c r="B16" s="2">
         <v>67</v>
@@ -1982,7 +1983,7 @@
     <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44042793844433714</v>
+        <v>0.33027125405476587</v>
       </c>
       <c r="B17" s="2">
         <v>86</v>
@@ -2006,7 +2007,7 @@
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24115652493355588</v>
+        <v>0.62949793069039206</v>
       </c>
       <c r="B18" s="2">
         <v>114</v>
@@ -2036,7 +2037,7 @@
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84278734472025851</v>
+        <v>0.81562036015081907</v>
       </c>
       <c r="B19" s="2">
         <v>14</v>
@@ -2060,7 +2061,7 @@
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14978477473196117</v>
+        <v>0.94592404190462731</v>
       </c>
       <c r="B20" s="2">
         <v>123</v>
@@ -2084,7 +2085,7 @@
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18190778388429241</v>
+        <v>0.46021136397104223</v>
       </c>
       <c r="B21" s="2">
         <v>34</v>
@@ -2108,7 +2109,7 @@
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57157636161636749</v>
+        <v>0.36473287751378225</v>
       </c>
       <c r="B22" s="2">
         <v>157</v>
@@ -2138,7 +2139,7 @@
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85114831615564834</v>
+        <v>0.17937524321454423</v>
       </c>
       <c r="B23" s="2">
         <v>115</v>
@@ -2162,7 +2163,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16880811748064795</v>
+        <v>0.80068313452205209</v>
       </c>
       <c r="B24" s="2">
         <v>124</v>
@@ -2183,7 +2184,7 @@
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91444889507599991</v>
+        <v>0.7091926858053309</v>
       </c>
       <c r="B25" s="2">
         <v>148</v>
@@ -2207,7 +2208,7 @@
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67209634655420603</v>
+        <v>0.56140339087237368</v>
       </c>
       <c r="B26" s="2">
         <v>69</v>
@@ -2231,7 +2232,7 @@
     <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37566189637189773</v>
+        <v>0.92711888661326214</v>
       </c>
       <c r="B27" s="2">
         <v>164</v>
@@ -2252,7 +2253,7 @@
     <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44853829026803005</v>
+        <v>0.4027647715635182</v>
       </c>
       <c r="B28" s="2">
         <v>70</v>
@@ -2279,7 +2280,7 @@
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73619165281772592</v>
+        <v>0.32604425982125851</v>
       </c>
       <c r="B29" s="2">
         <v>13</v>
@@ -2306,7 +2307,7 @@
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96541949048730746</v>
+        <v>5.5807185341686383E-3</v>
       </c>
       <c r="B30" s="2">
         <v>176</v>
@@ -2333,7 +2334,7 @@
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69306055623219287</v>
+        <v>0.51883987776193141</v>
       </c>
       <c r="B31" s="2">
         <v>99</v>
@@ -2357,7 +2358,7 @@
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23682837304477689</v>
+        <v>0.680642235033457</v>
       </c>
       <c r="B32" s="2">
         <v>141</v>
@@ -2378,7 +2379,7 @@
     <row r="33" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52166099539368616</v>
+        <v>0.49310099909676808</v>
       </c>
       <c r="B33" s="2">
         <v>92</v>
@@ -2411,7 +2412,7 @@
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.16215024318382987</v>
+        <v>0.32734301937291688</v>
       </c>
       <c r="B34" s="2">
         <v>150</v>
@@ -2435,7 +2436,7 @@
     <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4617772315810752</v>
+        <v>4.3979356362863542E-2</v>
       </c>
       <c r="B35" s="2">
         <v>154</v>
@@ -2462,7 +2463,7 @@
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8638278076134087E-3</v>
+        <v>0.58563669391795647</v>
       </c>
       <c r="B36" s="2">
         <v>129</v>
@@ -2489,7 +2490,7 @@
     <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92403182628501868</v>
+        <v>0.67427431788601044</v>
       </c>
       <c r="B37" s="2">
         <v>171</v>
@@ -2513,7 +2514,7 @@
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1586580986212298E-2</v>
+        <v>0.58479840417371942</v>
       </c>
       <c r="B38" s="2">
         <v>144</v>
@@ -2537,7 +2538,7 @@
     <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94901075871386931</v>
+        <v>0.58643070300946443</v>
       </c>
       <c r="B39" s="2">
         <v>95</v>
@@ -2564,7 +2565,7 @@
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13389847453512072</v>
+        <v>0.53728398287538592</v>
       </c>
       <c r="B40" s="2">
         <v>62</v>
@@ -2591,7 +2592,7 @@
     <row r="41" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81456445763998631</v>
+        <v>0.81259741472898195</v>
       </c>
       <c r="B41" s="2">
         <v>45</v>
@@ -2615,7 +2616,7 @@
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39016825516328046</v>
+        <v>0.90165032434216819</v>
       </c>
       <c r="B42" s="2">
         <v>47</v>
@@ -2639,7 +2640,7 @@
     <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15428476043792827</v>
+        <v>0.18365599769078311</v>
       </c>
       <c r="B43" s="2">
         <v>121</v>
@@ -2660,7 +2661,7 @@
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29536181026481811</v>
+        <v>0.12326235433599442</v>
       </c>
       <c r="B44" s="2">
         <v>107</v>
@@ -2684,7 +2685,7 @@
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35102876064320454</v>
+        <v>0.76634695967429656</v>
       </c>
       <c r="B45" s="2">
         <v>83</v>
@@ -2708,7 +2709,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68220229492424511</v>
+        <v>0.65277793249363347</v>
       </c>
       <c r="B46" s="2">
         <v>10</v>
@@ -2732,7 +2733,7 @@
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70070511059543639</v>
+        <v>0.48219005755261168</v>
       </c>
       <c r="B47" s="2">
         <v>113</v>
@@ -2756,7 +2757,7 @@
     <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54893938364894246</v>
+        <v>0.34733885221682681</v>
       </c>
       <c r="B48" s="2">
         <v>82</v>
@@ -2783,7 +2784,7 @@
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69007666967696113</v>
+        <v>0.32302542768079701</v>
       </c>
       <c r="B49" s="2">
         <v>19</v>
@@ -2807,7 +2808,7 @@
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45309586335315155</v>
+        <v>0.54018973761917177</v>
       </c>
       <c r="B50" s="2">
         <v>122</v>
@@ -2834,7 +2835,7 @@
     <row r="51" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30561729010079153</v>
+        <v>0.65750257440019422</v>
       </c>
       <c r="B51" s="2">
         <v>196</v>
@@ -2864,7 +2865,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74726873144867589</v>
+        <v>0.96240782873847242</v>
       </c>
       <c r="B52" s="2">
         <v>118</v>
@@ -2888,7 +2889,7 @@
     <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91739985511696676</v>
+        <v>0.87651968557220605</v>
       </c>
       <c r="B53" s="2">
         <v>66</v>
@@ -2912,7 +2913,7 @@
     <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70443110312020352</v>
+        <v>0.35475587854483481</v>
       </c>
       <c r="B54" s="2">
         <v>94</v>
@@ -2939,7 +2940,7 @@
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49833353100600752</v>
+        <v>0.19109901236739024</v>
       </c>
       <c r="B55" s="2">
         <v>128</v>
@@ -2963,7 +2964,7 @@
     <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99019828521241271</v>
+        <v>0.95550165421100186</v>
       </c>
       <c r="B56" s="2">
         <v>131</v>
@@ -2993,7 +2994,7 @@
     <row r="57" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6586333635086574E-2</v>
+        <v>0.2739025088304623</v>
       </c>
       <c r="B57" s="2">
         <v>8</v>
@@ -3017,7 +3018,7 @@
     <row r="58" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40969248329400898</v>
+        <v>0.26903128219068173</v>
       </c>
       <c r="B58" s="2">
         <v>55</v>
@@ -3044,7 +3045,7 @@
     <row r="59" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99477509626482796</v>
+        <v>0.22425105835534198</v>
       </c>
       <c r="B59" s="2">
         <v>44</v>
@@ -3074,7 +3075,7 @@
     <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81091193632991521</v>
+        <v>0.15804361572583081</v>
       </c>
       <c r="B60" s="2">
         <v>182</v>
@@ -3101,7 +3102,7 @@
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39745673691153161</v>
+        <v>0.35839694049471849</v>
       </c>
       <c r="B61" s="2">
         <v>143</v>
@@ -3128,7 +3129,7 @@
     <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32571949597654737</v>
+        <v>0.503662353629174</v>
       </c>
       <c r="B62" s="2">
         <v>112</v>
@@ -3155,7 +3156,7 @@
     <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5761980001363185</v>
+        <v>0.65656336173403762</v>
       </c>
       <c r="B63" s="2">
         <v>98</v>
@@ -3185,7 +3186,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14040765825326484</v>
+        <v>0.18658783883992125</v>
       </c>
       <c r="B64" s="2">
         <v>11</v>
@@ -3206,7 +3207,7 @@
     <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0666709532248415E-2</v>
+        <v>3.2806314695890237E-2</v>
       </c>
       <c r="B65" s="2">
         <v>130</v>
@@ -3236,7 +3237,7 @@
     <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>1.2580325976086382E-2</v>
+        <v>0.28970024489540469</v>
       </c>
       <c r="B66" s="2">
         <v>37</v>
@@ -3260,7 +3261,7 @@
     <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9653410112240518</v>
+        <v>0.84187853538933244</v>
       </c>
       <c r="B67" s="2">
         <v>12</v>
@@ -3284,7 +3285,7 @@
     <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8969776740958046E-3</v>
+        <v>0.19862358497045707</v>
       </c>
       <c r="B68" s="2">
         <v>156</v>
@@ -3305,7 +3306,7 @@
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13426163287973514</v>
+        <v>0.46045306522149132</v>
       </c>
       <c r="B69" s="2">
         <v>65</v>
@@ -3329,7 +3330,7 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5016028022763748E-2</v>
+        <v>0.49305794089013011</v>
       </c>
       <c r="B70" s="2">
         <v>188</v>
@@ -3356,7 +3357,7 @@
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8678749562870044</v>
+        <v>0.15856831484968514</v>
       </c>
       <c r="B71" s="2">
         <v>16</v>
@@ -3380,7 +3381,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67212576497879806</v>
+        <v>0.19323694917494505</v>
       </c>
       <c r="B72" s="2">
         <v>120</v>
@@ -3404,7 +3405,7 @@
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16122186334831179</v>
+        <v>0.29254069804151661</v>
       </c>
       <c r="B73" s="2">
         <v>78</v>
@@ -3431,7 +3432,7 @@
     <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38528617878285076</v>
+        <v>0.40918410340886635</v>
       </c>
       <c r="B74" s="2">
         <v>109</v>
@@ -3458,7 +3459,7 @@
     <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36945604649538133</v>
+        <v>0.93542057988361549</v>
       </c>
       <c r="B75" s="2">
         <v>177</v>
@@ -3485,7 +3486,7 @@
     <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33416548703580085</v>
+        <v>0.50539151522725134</v>
       </c>
       <c r="B76" s="2">
         <v>104</v>
@@ -3509,7 +3510,7 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96907846532352093</v>
+        <v>0.22484965282160574</v>
       </c>
       <c r="B77" s="2">
         <v>187</v>
@@ -3533,7 +3534,7 @@
     <row r="78" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57427053119884053</v>
+        <v>0.84919601750179385</v>
       </c>
       <c r="B78" s="2">
         <v>50</v>
@@ -3563,7 +3564,7 @@
     <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68219080996910775</v>
+        <v>0.12269458395034849</v>
       </c>
       <c r="B79" s="2">
         <v>147</v>
@@ -3590,7 +3591,7 @@
     <row r="80" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16322202077163606</v>
+        <v>0.74159039187742726</v>
       </c>
       <c r="B80" s="2">
         <v>168</v>
@@ -3614,7 +3615,7 @@
     <row r="81" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97112091251147337</v>
+        <v>5.3658180766960828E-2</v>
       </c>
       <c r="B81" s="2">
         <v>165</v>
@@ -3641,7 +3642,7 @@
     <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9610193303239032E-2</v>
+        <v>0.60209172548247225</v>
       </c>
       <c r="B82" s="2">
         <v>90</v>
@@ -3665,7 +3666,7 @@
     <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48820767985890867</v>
+        <v>0.71993533795744236</v>
       </c>
       <c r="B83" s="2">
         <v>192</v>
@@ -3689,7 +3690,7 @@
     <row r="84" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26791963324133405</v>
+        <v>0.78131306150330271</v>
       </c>
       <c r="B84" s="2">
         <v>53</v>
@@ -3716,7 +3717,7 @@
     <row r="85" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77334791478720288</v>
+        <v>0.76932698989421233</v>
       </c>
       <c r="B85" s="2">
         <v>54</v>
@@ -3743,7 +3744,7 @@
     <row r="86" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59277388478894244</v>
+        <v>0.68767586690754423</v>
       </c>
       <c r="B86" s="2">
         <v>91</v>
@@ -3770,7 +3771,7 @@
     <row r="87" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42531807666637944</v>
+        <v>0.81863126592235957</v>
       </c>
       <c r="B87" s="2">
         <v>46</v>
@@ -3797,7 +3798,7 @@
     <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17137041872737313</v>
+        <v>0.36911298111878477</v>
       </c>
       <c r="B88" s="2">
         <v>42</v>
@@ -3821,7 +3822,7 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1388075927729433</v>
+        <v>0.48500191676202031</v>
       </c>
       <c r="B89" s="2">
         <v>119</v>
@@ -3845,7 +3846,7 @@
     <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45444273020909143</v>
+        <v>5.4087005094059171E-2</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -3866,7 +3867,7 @@
     <row r="91" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71293510759906165</v>
+        <v>0.73359944064747618</v>
       </c>
       <c r="B91" s="2">
         <v>36</v>
@@ -3893,7 +3894,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77327313746407977</v>
+        <v>0.94512011725975142</v>
       </c>
       <c r="B92" s="2">
         <v>186</v>
@@ -3917,7 +3918,7 @@
     <row r="93" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44315951905413431</v>
+        <v>0.95936129504201018</v>
       </c>
       <c r="B93" s="2">
         <v>136</v>
@@ -3941,7 +3942,7 @@
     <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92817315573725745</v>
+        <v>0.31295864758411385</v>
       </c>
       <c r="B94" s="2">
         <v>151</v>
@@ -3971,7 +3972,7 @@
     <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83467897196495966</v>
+        <v>2.2562571022044398E-2</v>
       </c>
       <c r="B95" s="2">
         <v>75</v>
@@ -3992,7 +3993,7 @@
     <row r="96" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26743474039747872</v>
+        <v>0.26663161639804933</v>
       </c>
       <c r="B96" s="2">
         <v>167</v>
@@ -4019,7 +4020,7 @@
     <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93128636994934821</v>
+        <v>0.44062751947424383</v>
       </c>
       <c r="B97" s="2">
         <v>108</v>
@@ -4043,7 +4044,7 @@
     <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ref="A98:A129" ca="1" si="3">RAND()</f>
-        <v>0.70337860524094886</v>
+        <v>0.9388987008442351</v>
       </c>
       <c r="B98" s="2">
         <v>169</v>
@@ -4070,7 +4071,7 @@
     <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36394452965270907</v>
+        <v>0.67311833360637141</v>
       </c>
       <c r="B99" s="2">
         <v>133</v>
@@ -4097,7 +4098,7 @@
     <row r="100" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95566124177457767</v>
+        <v>0.58282857561090395</v>
       </c>
       <c r="B100" s="2">
         <v>40</v>
@@ -4118,7 +4119,7 @@
     <row r="101" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50480515639366197</v>
+        <v>0.17187008705320694</v>
       </c>
       <c r="B101" s="2">
         <v>3</v>
@@ -4139,7 +4140,7 @@
     <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94322599643268157</v>
+        <v>3.1204465477099652E-2</v>
       </c>
       <c r="B102" s="2">
         <v>32</v>
@@ -4163,7 +4164,7 @@
     <row r="103" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34740023815897514</v>
+        <v>0.46609200160516384</v>
       </c>
       <c r="B103" s="2">
         <v>4</v>
@@ -4184,7 +4185,7 @@
     <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54991127734200418</v>
+        <v>0.90214083095488484</v>
       </c>
       <c r="B104" s="2">
         <v>76</v>
@@ -4214,7 +4215,7 @@
     <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16525055503443498</v>
+        <v>0.85429047664862123</v>
       </c>
       <c r="B105" s="2">
         <v>18</v>
@@ -4238,7 +4239,7 @@
     <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43553414175762606</v>
+        <v>0.26076391529093923</v>
       </c>
       <c r="B106" s="2">
         <v>103</v>
@@ -4268,7 +4269,7 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4932661898139663</v>
+        <v>0.4535410492174784</v>
       </c>
       <c r="B107" s="2">
         <v>73</v>
@@ -4289,7 +4290,7 @@
     <row r="108" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96905276484917824</v>
+        <v>0.8210828229817837</v>
       </c>
       <c r="B108" s="2">
         <v>159</v>
@@ -4316,7 +4317,7 @@
     <row r="109" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95833329316547866</v>
+        <v>0.40583219565528272</v>
       </c>
       <c r="B109" s="2">
         <v>43</v>
@@ -4340,7 +4341,7 @@
     <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3184649088396897</v>
+        <v>0.67889722512817396</v>
       </c>
       <c r="B110" s="2">
         <v>185</v>
@@ -4367,7 +4368,7 @@
     <row r="111" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89345193394734979</v>
+        <v>0.77694079836676022</v>
       </c>
       <c r="B111" s="2">
         <v>51</v>
@@ -4394,7 +4395,7 @@
     <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98218684755608621</v>
+        <v>0.6050109069614712</v>
       </c>
       <c r="B112" s="2">
         <v>79</v>
@@ -4421,7 +4422,7 @@
     <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74893639243448051</v>
+        <v>0.36818625759977219</v>
       </c>
       <c r="B113" s="2">
         <v>134</v>
@@ -4445,7 +4446,7 @@
     <row r="114" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82831260124736428</v>
+        <v>0.29414604550863499</v>
       </c>
       <c r="B114" s="2">
         <v>153</v>
@@ -4472,7 +4473,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68640215149346684</v>
+        <v>0.4654343630695158</v>
       </c>
       <c r="B115" s="2">
         <v>117</v>
@@ -4496,7 +4497,7 @@
     <row r="116" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11596844446754717</v>
+        <v>7.0755331243707031E-2</v>
       </c>
       <c r="B116" s="2">
         <v>137</v>
@@ -4523,7 +4524,7 @@
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54556167888531681</v>
+        <v>0.29804958006936666</v>
       </c>
       <c r="B117" s="2">
         <v>126</v>
@@ -4550,7 +4551,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50532531946640313</v>
+        <v>0.15327221917367007</v>
       </c>
       <c r="B118" s="2">
         <v>135</v>
@@ -4580,7 +4581,7 @@
     <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8595636101525963</v>
+        <v>0.3810532981151683</v>
       </c>
       <c r="B119" s="2">
         <v>105</v>
@@ -4601,7 +4602,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63771664715077814</v>
+        <v>0.73646241210360253</v>
       </c>
       <c r="B120" s="2">
         <v>189</v>
@@ -4622,7 +4623,7 @@
     <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11436630481527121</v>
+        <v>0.64546112551500257</v>
       </c>
       <c r="B121" s="2">
         <v>64</v>
@@ -4646,7 +4647,7 @@
     <row r="122" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81373026207716004</v>
+        <v>0.81714475139251908</v>
       </c>
       <c r="B122" s="2">
         <v>162</v>
@@ -4670,7 +4671,7 @@
     <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64538196551653892</v>
+        <v>0.935444966731792</v>
       </c>
       <c r="B123" s="2">
         <v>80</v>
@@ -4697,7 +4698,7 @@
     <row r="124" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11397393368230657</v>
+        <v>0.64776859875234927</v>
       </c>
       <c r="B124" s="2">
         <v>166</v>
@@ -4724,7 +4725,7 @@
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28874286667453064</v>
+        <v>4.975379237904809E-3</v>
       </c>
       <c r="B125" s="2">
         <v>22</v>
@@ -4745,7 +4746,7 @@
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44973287601321876</v>
+        <v>0.61495703009711067</v>
       </c>
       <c r="B126" s="2">
         <v>190</v>
@@ -4769,7 +4770,7 @@
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5056224071783464E-2</v>
+        <v>0.49776776958453306</v>
       </c>
       <c r="B127" s="2">
         <v>28</v>
@@ -4790,7 +4791,7 @@
     <row r="128" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.618968254032644E-2</v>
+        <v>0.84230310665754482</v>
       </c>
       <c r="B128" s="2">
         <v>193</v>
@@ -4814,7 +4815,7 @@
     <row r="129" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1449073695767029E-2</v>
+        <v>0.51817818071544319</v>
       </c>
       <c r="B129" s="2">
         <v>9</v>
@@ -4838,7 +4839,7 @@
     <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A161" ca="1" si="4">RAND()</f>
-        <v>0.18327353494981125</v>
+        <v>0.12789671102873912</v>
       </c>
       <c r="B130" s="2">
         <v>102</v>
@@ -4862,7 +4863,7 @@
     <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1310523874707172E-2</v>
+        <v>0.75587588979888687</v>
       </c>
       <c r="B131" s="2">
         <v>160</v>
@@ -4883,7 +4884,7 @@
     <row r="132" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47958254796757815</v>
+        <v>8.6369418928928798E-3</v>
       </c>
       <c r="B132" s="2">
         <v>6</v>
@@ -4904,7 +4905,7 @@
     <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93695630943835506</v>
+        <v>0.75598603544000809</v>
       </c>
       <c r="B133" s="2">
         <v>29</v>
@@ -4928,7 +4929,7 @@
     <row r="134" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9045309429487367</v>
+        <v>0.27522787420641259</v>
       </c>
       <c r="B134" s="2">
         <v>111</v>
@@ -4958,7 +4959,7 @@
     <row r="135" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93839449652098195</v>
+        <v>0.20738783988349008</v>
       </c>
       <c r="B135" s="2">
         <v>49</v>
@@ -4985,7 +4986,7 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34109609304770239</v>
+        <v>0.55799235090303712</v>
       </c>
       <c r="B136" s="2">
         <v>89</v>
@@ -5006,7 +5007,7 @@
     <row r="137" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64587805214618399</v>
+        <v>0.32744242092362275</v>
       </c>
       <c r="B137" s="2">
         <v>72</v>
@@ -5033,7 +5034,7 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72633012469390201</v>
+        <v>0.9505404010928401</v>
       </c>
       <c r="B138" s="2">
         <v>155</v>
@@ -5060,7 +5061,7 @@
     <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28873323709485821</v>
+        <v>0.70063371162826615</v>
       </c>
       <c r="B139" s="2">
         <v>74</v>
@@ -5084,7 +5085,7 @@
     <row r="140" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6883237062712263</v>
+        <v>0.54413304974132171</v>
       </c>
       <c r="B140" s="2">
         <v>101</v>
@@ -5111,7 +5112,7 @@
     <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83765999278213199</v>
+        <v>0.99959405418559144</v>
       </c>
       <c r="B141" s="2">
         <v>106</v>
@@ -5141,7 +5142,7 @@
     <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83035674486557742</v>
+        <v>0.55005352129390017</v>
       </c>
       <c r="B142" s="2">
         <v>172</v>
@@ -5162,7 +5163,7 @@
     <row r="143" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57258168374161955</v>
+        <v>0.45450433009728131</v>
       </c>
       <c r="B143" s="2">
         <v>77</v>
@@ -5189,7 +5190,7 @@
     <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4622957052092831E-2</v>
+        <v>0.95112703829897483</v>
       </c>
       <c r="B144" s="2">
         <v>20</v>
@@ -5213,7 +5214,7 @@
     <row r="145" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17042949692321296</v>
+        <v>0.47809093128612046</v>
       </c>
       <c r="B145" s="2">
         <v>27</v>
@@ -5234,7 +5235,7 @@
     <row r="146" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58489619500278678</v>
+        <v>0.9779894608355193</v>
       </c>
       <c r="B146" s="2">
         <v>149</v>
@@ -5261,7 +5262,7 @@
     <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35816274178932306</v>
+        <v>0.52663655694984679</v>
       </c>
       <c r="B147" s="2">
         <v>15</v>
@@ -5282,7 +5283,7 @@
     <row r="148" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21060930034080272</v>
+        <v>5.7036386069765577E-2</v>
       </c>
       <c r="B148" s="2">
         <v>181</v>
@@ -5312,7 +5313,7 @@
     <row r="149" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45336131518510969</v>
+        <v>0.23668520996323938</v>
       </c>
       <c r="B149" s="2">
         <v>195</v>
@@ -5339,7 +5340,7 @@
     <row r="150" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3042103501345047</v>
+        <v>0.26111301820879296</v>
       </c>
       <c r="B150" s="2">
         <v>116</v>
@@ -5366,7 +5367,7 @@
     <row r="151" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88428005731752557</v>
+        <v>0.97030317582734171</v>
       </c>
       <c r="B151" s="2">
         <v>5</v>
@@ -5393,7 +5394,7 @@
     <row r="152" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59461221600459158</v>
+        <v>0.5284309159661118</v>
       </c>
       <c r="B152" s="2">
         <v>142</v>
@@ -5420,7 +5421,7 @@
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68088624681713428</v>
+        <v>0.69503693816514933</v>
       </c>
       <c r="B153" s="2">
         <v>125</v>
@@ -5447,7 +5448,7 @@
     <row r="154" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3201589586119471</v>
+        <v>0.75249788513211469</v>
       </c>
       <c r="B154" s="2">
         <v>178</v>
@@ -5471,7 +5472,7 @@
     <row r="155" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46610812670771073</v>
+        <v>0.41232245890344088</v>
       </c>
       <c r="B155" s="2">
         <v>7</v>
@@ -5498,7 +5499,7 @@
     <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42931822473918047</v>
+        <v>4.1792433102353033E-2</v>
       </c>
       <c r="B156" s="2">
         <v>85</v>
@@ -5525,7 +5526,7 @@
     <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34757872399914957</v>
+        <v>0.1363603146401714</v>
       </c>
       <c r="B157" s="2">
         <v>174</v>
@@ -5552,7 +5553,7 @@
     <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78406469995732708</v>
+        <v>0.98718518169451352</v>
       </c>
       <c r="B158" s="2">
         <v>39</v>
@@ -5573,7 +5574,7 @@
     <row r="159" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29682827819473701</v>
+        <v>0.39260480636857353</v>
       </c>
       <c r="B159" s="2">
         <v>110</v>
@@ -5597,7 +5598,7 @@
     <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19191816262036121</v>
+        <v>6.2449713814111019E-2</v>
       </c>
       <c r="B160" s="2">
         <v>140</v>
@@ -5624,7 +5625,7 @@
     <row r="161" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81498541882559239</v>
+        <v>0.65642776274773962</v>
       </c>
       <c r="B161" s="2">
         <v>170</v>
@@ -5657,7 +5658,7 @@
     <row r="162" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ref="A162:A197" ca="1" si="5">RAND()</f>
-        <v>0.61782551992892154</v>
+        <v>9.9065894745805294E-2</v>
       </c>
       <c r="B162" s="2">
         <v>60</v>
@@ -5684,7 +5685,7 @@
     <row r="163" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30360392747552745</v>
+        <v>0.21374916895751617</v>
       </c>
       <c r="B163" s="2">
         <v>191</v>
@@ -5711,7 +5712,7 @@
     <row r="164" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8527972998870369</v>
+        <v>0.74033058792298367</v>
       </c>
       <c r="B164" s="2">
         <v>88</v>
@@ -5732,7 +5733,7 @@
     <row r="165" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1330458814099384E-2</v>
+        <v>0.21424731743959946</v>
       </c>
       <c r="B165" s="2">
         <v>23</v>
@@ -5759,7 +5760,7 @@
     <row r="166" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1558891689114215E-2</v>
+        <v>1.1601298221601386E-2</v>
       </c>
       <c r="B166" s="2">
         <v>84</v>
@@ -5786,7 +5787,7 @@
     <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89191068837218113</v>
+        <v>0.64470194996500563</v>
       </c>
       <c r="B167" s="2">
         <v>184</v>
@@ -5813,7 +5814,7 @@
     <row r="168" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80455045493839217</v>
+        <v>0.11637449443058845</v>
       </c>
       <c r="B168" s="2">
         <v>17</v>
@@ -5840,7 +5841,7 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46062108893560327</v>
+        <v>0.27403013485445626</v>
       </c>
       <c r="B169" s="2">
         <v>21</v>
@@ -5864,7 +5865,7 @@
     <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2893637941945153E-2</v>
+        <v>0.15726626385439313</v>
       </c>
       <c r="B170" s="2">
         <v>30</v>
@@ -5891,7 +5892,7 @@
     <row r="171" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61811410980181936</v>
+        <v>0.40078821159053324</v>
       </c>
       <c r="B171" s="2">
         <v>25</v>
@@ -5912,7 +5913,7 @@
     <row r="172" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0146383319163648E-2</v>
+        <v>0.50772456239414043</v>
       </c>
       <c r="B172" s="2">
         <v>61</v>
@@ -5939,7 +5940,7 @@
     <row r="173" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15923474724564846</v>
+        <v>5.5368273831599035E-2</v>
       </c>
       <c r="B173" s="2">
         <v>175</v>
@@ -5969,7 +5970,7 @@
     <row r="174" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42076607469715832</v>
+        <v>0.33313256668777025</v>
       </c>
       <c r="B174" s="2">
         <v>139</v>
@@ -5993,7 +5994,7 @@
     <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92252870845893864</v>
+        <v>0.31453612288672383</v>
       </c>
       <c r="B175" s="2">
         <v>58</v>
@@ -6017,7 +6018,7 @@
     <row r="176" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79778162189023327</v>
+        <v>0.93315830154367707</v>
       </c>
       <c r="B176" s="2">
         <v>33</v>
@@ -6041,7 +6042,7 @@
     <row r="177" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16105299933626915</v>
+        <v>0.76835085895940081</v>
       </c>
       <c r="B177" s="2">
         <v>173</v>
@@ -6071,7 +6072,7 @@
     <row r="178" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25519630319185493</v>
+        <v>0.41922104997559773</v>
       </c>
       <c r="B178" s="2">
         <v>71</v>
@@ -6104,7 +6105,7 @@
     <row r="179" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98369544098429584</v>
+        <v>0.12025009218358362</v>
       </c>
       <c r="B179" s="2">
         <v>146</v>
@@ -6131,7 +6132,7 @@
     <row r="180" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25212003805562422</v>
+        <v>0.49303324929397674</v>
       </c>
       <c r="B180" s="2">
         <v>158</v>
@@ -6158,7 +6159,7 @@
     <row r="181" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91263597819849651</v>
+        <v>0.94952420330592002</v>
       </c>
       <c r="B181" s="2">
         <v>179</v>
@@ -6185,7 +6186,7 @@
     <row r="182" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44797140445975669</v>
+        <v>0.23208733494854505</v>
       </c>
       <c r="B182" s="2">
         <v>100</v>
@@ -6209,7 +6210,7 @@
     <row r="183" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3402513905972762E-2</v>
+        <v>0.25370538849228474</v>
       </c>
       <c r="B183" s="2">
         <v>87</v>
@@ -6236,7 +6237,7 @@
     <row r="184" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93360322083530012</v>
+        <v>0.48002387790910239</v>
       </c>
       <c r="B184" s="2">
         <v>138</v>
@@ -6269,7 +6270,7 @@
     <row r="185" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88185218457777592</v>
+        <v>0.11033140268047448</v>
       </c>
       <c r="B185" s="2">
         <v>63</v>
@@ -6293,7 +6294,7 @@
     <row r="186" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35354764794978533</v>
+        <v>0.96353777873698676</v>
       </c>
       <c r="B186" s="2">
         <v>2</v>
@@ -6317,7 +6318,7 @@
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46272881097127816</v>
+        <v>0.5664469475517937</v>
       </c>
       <c r="B187" s="2">
         <v>161</v>
@@ -6338,7 +6339,7 @@
     <row r="188" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30261985122905721</v>
+        <v>0.99603282436261764</v>
       </c>
       <c r="B188" s="2">
         <v>41</v>
@@ -6368,7 +6369,7 @@
     <row r="189" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15155511755701601</v>
+        <v>0.49400658276905207</v>
       </c>
       <c r="B189" s="2">
         <v>194</v>
@@ -6389,7 +6390,7 @@
     <row r="190" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58109779919154858</v>
+        <v>0.11067753020196602</v>
       </c>
       <c r="B190" s="2">
         <v>152</v>
@@ -6416,7 +6417,7 @@
     <row r="191" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63339503790684271</v>
+        <v>7.1568788853538234E-2</v>
       </c>
       <c r="B191" s="2">
         <v>96</v>
@@ -6440,7 +6441,7 @@
     <row r="192" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11576986788878851</v>
+        <v>0.68633370367502311</v>
       </c>
       <c r="B192" s="2">
         <v>183</v>
@@ -6464,7 +6465,7 @@
     <row r="193" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61293729234471017</v>
+        <v>0.24933836649585361</v>
       </c>
       <c r="B193" s="2">
         <v>24</v>
@@ -6485,7 +6486,7 @@
     <row r="194" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85809595238995329</v>
+        <v>0.44376634893716693</v>
       </c>
       <c r="B194" s="2">
         <v>180</v>
@@ -6515,7 +6516,7 @@
     <row r="195" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51263726231811568</v>
+        <v>0.2555973274053881</v>
       </c>
       <c r="B195" s="2">
         <v>48</v>
@@ -6539,7 +6540,7 @@
     <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9374292993579636</v>
+        <v>0.7713080218048709</v>
       </c>
       <c r="B196" s="2">
         <v>127</v>
@@ -6566,7 +6567,7 @@
     <row r="197" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86793222279407789</v>
+        <v>0.75222729388129428</v>
       </c>
       <c r="B197" s="2">
         <v>68</v>
@@ -6745,7 +6746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="A343" sqref="A198:XFD343"/>
     </sheetView>
   </sheetViews>
